--- a/Study 3/Shocks/GCAM/CP_EI - 2100.xlsx
+++ b/Study 3/Shocks/GCAM/CP_EI - 2100.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.05982310415098396</v>
+        <v>0.05982310415098397</v>
       </c>
     </row>
     <row r="5">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.1015219333516543</v>
+        <v>0.1015219333516542</v>
       </c>
     </row>
     <row r="6">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.1200400489059186</v>
+        <v>0.1200400489059187</v>
       </c>
     </row>
     <row r="25">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.02845013150071591</v>
+        <v>0.02845013150071592</v>
       </c>
     </row>
     <row r="29">
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.2159850591430446</v>
+        <v>0.2159850591430447</v>
       </c>
     </row>
     <row r="37">
@@ -12802,7 +12802,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.2206938091805116</v>
+        <v>0.2206938091805115</v>
       </c>
     </row>
     <row r="38">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2247651000936679</v>
+        <v>0.224765100093668</v>
       </c>
     </row>
     <row r="41">
